--- a/utilities/AutoSave/data/items.xlsx
+++ b/utilities/AutoSave/data/items.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="81">
   <si>
     <t>name</t>
   </si>
@@ -256,6 +256,12 @@
   </si>
   <si>
     <t>Helmet of steel</t>
+  </si>
+  <si>
+    <t>Progress gem</t>
+  </si>
+  <si>
+    <t>gem</t>
   </si>
 </sst>
 </file>
@@ -715,7 +721,7 @@
   <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2712,6 +2718,37 @@
       <c r="M51" s="18"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>51</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" s="7">
+        <v>1</v>
+      </c>
+      <c r="E52" s="7"/>
+      <c r="F52" s="11">
+        <v>1</v>
+      </c>
+      <c r="G52" s="7">
+        <v>0</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0</v>
+      </c>
+      <c r="I52" s="7">
+        <v>0</v>
+      </c>
+      <c r="J52" s="7">
+        <v>0</v>
+      </c>
+      <c r="K52" s="7">
+        <v>0</v>
+      </c>
       <c r="M52"/>
     </row>
     <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/utilities/AutoSave/data/items.xlsx
+++ b/utilities/AutoSave/data/items.xlsx
@@ -720,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2728,11 +2728,11 @@
         <v>80</v>
       </c>
       <c r="D52" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52" s="7">
         <v>0</v>

--- a/utilities/AutoSave/data/items.xlsx
+++ b/utilities/AutoSave/data/items.xlsx
@@ -252,9 +252,6 @@
     <t>Arquero</t>
   </si>
   <si>
-    <t>update</t>
-  </si>
-  <si>
     <t>Helmet of steel</t>
   </si>
   <si>
@@ -262,6 +259,9 @@
   </si>
   <si>
     <t>gem</t>
+  </si>
+  <si>
+    <t>shop</t>
   </si>
 </sst>
 </file>
@@ -718,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M63"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -735,13 +735,13 @@
     <col min="8" max="8" width="9.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="60.140625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="12" width="7.85546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="60.140625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -775,11 +775,12 @@
       <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" s="15"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -811,14 +812,15 @@
       <c r="K2" s="7">
         <v>0</v>
       </c>
-      <c r="L2" s="15">
-        <v>1</v>
-      </c>
-      <c r="M2" s="17" t="s">
+      <c r="L2" s="7">
+        <v>1</v>
+      </c>
+      <c r="M2" s="15"/>
+      <c r="N2" s="17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -850,12 +852,13 @@
       <c r="K3" s="7">
         <v>1</v>
       </c>
-      <c r="L3" s="15">
-        <v>1</v>
-      </c>
-      <c r="M3" s="17"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="7">
+        <v>1</v>
+      </c>
+      <c r="M3" s="15"/>
+      <c r="N3" s="17"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -887,12 +890,13 @@
       <c r="K4" s="7">
         <v>3</v>
       </c>
-      <c r="L4" s="15">
-        <v>1</v>
-      </c>
-      <c r="M4" s="17"/>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="7">
+        <v>1</v>
+      </c>
+      <c r="M4" s="15"/>
+      <c r="N4" s="17"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -924,12 +928,13 @@
       <c r="K5" s="7">
         <v>3</v>
       </c>
-      <c r="L5" s="15">
-        <v>1</v>
-      </c>
-      <c r="M5" s="17"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
+      <c r="M5" s="15"/>
+      <c r="N5" s="17"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -961,12 +966,13 @@
       <c r="K6" s="7">
         <v>3</v>
       </c>
-      <c r="L6" s="15">
-        <v>1</v>
-      </c>
-      <c r="M6" s="17"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="7">
+        <v>1</v>
+      </c>
+      <c r="M6" s="15"/>
+      <c r="N6" s="17"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -998,12 +1004,13 @@
       <c r="K7" s="7">
         <v>3</v>
       </c>
-      <c r="L7" s="15">
-        <v>1</v>
-      </c>
-      <c r="M7" s="17"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="15"/>
+      <c r="N7" s="17"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1035,12 +1042,13 @@
       <c r="K8" s="7">
         <v>5</v>
       </c>
-      <c r="L8" s="15">
-        <v>1</v>
-      </c>
-      <c r="M8" s="17"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="7">
+        <v>1</v>
+      </c>
+      <c r="M8" s="15"/>
+      <c r="N8" s="17"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1072,12 +1080,13 @@
       <c r="K9" s="7">
         <v>10</v>
       </c>
-      <c r="L9" s="15">
-        <v>1</v>
-      </c>
-      <c r="M9" s="17"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="7">
+        <v>1</v>
+      </c>
+      <c r="M9" s="15"/>
+      <c r="N9" s="17"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1109,12 +1118,13 @@
       <c r="K10" s="7">
         <v>20</v>
       </c>
-      <c r="L10" s="15">
-        <v>1</v>
-      </c>
-      <c r="M10" s="17"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L10" s="7">
+        <v>1</v>
+      </c>
+      <c r="M10" s="15"/>
+      <c r="N10" s="17"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1146,12 +1156,13 @@
       <c r="K11" s="7">
         <v>25</v>
       </c>
-      <c r="L11" s="15">
-        <v>1</v>
-      </c>
-      <c r="M11" s="17"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L11" s="7">
+        <v>1</v>
+      </c>
+      <c r="M11" s="15"/>
+      <c r="N11" s="17"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1185,14 +1196,15 @@
       <c r="K12" s="9">
         <v>1</v>
       </c>
-      <c r="L12" s="15">
-        <v>1</v>
-      </c>
-      <c r="M12" s="16" t="s">
+      <c r="L12" s="9">
+        <v>1</v>
+      </c>
+      <c r="M12" s="15"/>
+      <c r="N12" s="16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1226,12 +1238,13 @@
       <c r="K13" s="9">
         <v>2</v>
       </c>
-      <c r="L13" s="15">
-        <v>1</v>
-      </c>
-      <c r="M13" s="16"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L13" s="9">
+        <v>1</v>
+      </c>
+      <c r="M13" s="15"/>
+      <c r="N13" s="16"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1265,12 +1278,13 @@
       <c r="K14" s="9">
         <v>4</v>
       </c>
-      <c r="L14" s="15">
-        <v>1</v>
-      </c>
-      <c r="M14" s="16"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L14" s="9">
+        <v>1</v>
+      </c>
+      <c r="M14" s="15"/>
+      <c r="N14" s="16"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1304,12 +1318,13 @@
       <c r="K15" s="9">
         <v>6</v>
       </c>
-      <c r="L15" s="15">
-        <v>1</v>
-      </c>
-      <c r="M15" s="16"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L15" s="9">
+        <v>1</v>
+      </c>
+      <c r="M15" s="15"/>
+      <c r="N15" s="16"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1343,12 +1358,13 @@
       <c r="K16" s="9">
         <v>1</v>
       </c>
-      <c r="L16" s="15">
-        <v>1</v>
-      </c>
-      <c r="M16" s="16"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L16" s="9">
+        <v>1</v>
+      </c>
+      <c r="M16" s="15"/>
+      <c r="N16" s="16"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1382,12 +1398,13 @@
       <c r="K17" s="9">
         <v>2</v>
       </c>
-      <c r="L17" s="15">
-        <v>1</v>
-      </c>
-      <c r="M17" s="16"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L17" s="9">
+        <v>1</v>
+      </c>
+      <c r="M17" s="15"/>
+      <c r="N17" s="16"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1421,12 +1438,13 @@
       <c r="K18" s="9">
         <v>4</v>
       </c>
-      <c r="L18" s="15">
-        <v>1</v>
-      </c>
-      <c r="M18" s="16"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L18" s="9">
+        <v>1</v>
+      </c>
+      <c r="M18" s="15"/>
+      <c r="N18" s="16"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1460,12 +1478,13 @@
       <c r="K19" s="9">
         <v>8</v>
       </c>
-      <c r="L19" s="15">
-        <v>1</v>
-      </c>
-      <c r="M19" s="16"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L19" s="9">
+        <v>1</v>
+      </c>
+      <c r="M19" s="15"/>
+      <c r="N19" s="16"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1499,12 +1518,13 @@
       <c r="K20" s="9">
         <v>1</v>
       </c>
-      <c r="L20" s="15">
-        <v>1</v>
-      </c>
-      <c r="M20" s="16"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L20" s="9">
+        <v>1</v>
+      </c>
+      <c r="M20" s="15"/>
+      <c r="N20" s="16"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -1538,12 +1558,13 @@
       <c r="K21" s="9">
         <v>2</v>
       </c>
-      <c r="L21" s="15">
-        <v>1</v>
-      </c>
-      <c r="M21" s="16"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L21" s="9">
+        <v>1</v>
+      </c>
+      <c r="M21" s="15"/>
+      <c r="N21" s="16"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1577,12 +1598,13 @@
       <c r="K22" s="9">
         <v>4</v>
       </c>
-      <c r="L22" s="15">
-        <v>1</v>
-      </c>
-      <c r="M22" s="16"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L22" s="9">
+        <v>1</v>
+      </c>
+      <c r="M22" s="15"/>
+      <c r="N22" s="16"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -1616,17 +1638,18 @@
       <c r="K23" s="9">
         <v>8</v>
       </c>
-      <c r="L23" s="15">
-        <v>1</v>
-      </c>
-      <c r="M23" s="16"/>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L23" s="9">
+        <v>1</v>
+      </c>
+      <c r="M23" s="15"/>
+      <c r="N23" s="16"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>13</v>
@@ -1655,14 +1678,15 @@
       <c r="K24" s="8">
         <v>1</v>
       </c>
-      <c r="L24" s="15">
-        <v>1</v>
-      </c>
-      <c r="M24" s="19" t="s">
+      <c r="L24" s="8">
+        <v>1</v>
+      </c>
+      <c r="M24" s="15"/>
+      <c r="N24" s="19" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -1696,12 +1720,13 @@
       <c r="K25" s="8">
         <v>2</v>
       </c>
-      <c r="L25" s="15">
-        <v>1</v>
-      </c>
-      <c r="M25" s="19"/>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L25" s="8">
+        <v>1</v>
+      </c>
+      <c r="M25" s="15"/>
+      <c r="N25" s="19"/>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -1735,12 +1760,13 @@
       <c r="K26" s="8">
         <v>4</v>
       </c>
-      <c r="L26" s="15">
-        <v>1</v>
-      </c>
-      <c r="M26" s="19"/>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L26" s="8">
+        <v>1</v>
+      </c>
+      <c r="M26" s="15"/>
+      <c r="N26" s="19"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -1774,12 +1800,13 @@
       <c r="K27" s="8">
         <v>6</v>
       </c>
-      <c r="L27" s="15">
-        <v>1</v>
-      </c>
-      <c r="M27" s="19"/>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L27" s="8">
+        <v>1</v>
+      </c>
+      <c r="M27" s="15"/>
+      <c r="N27" s="19"/>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -1813,12 +1840,13 @@
       <c r="K28" s="8">
         <v>1</v>
       </c>
-      <c r="L28" s="15">
-        <v>1</v>
-      </c>
-      <c r="M28" s="19"/>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L28" s="8">
+        <v>1</v>
+      </c>
+      <c r="M28" s="15"/>
+      <c r="N28" s="19"/>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -1852,12 +1880,13 @@
       <c r="K29" s="8">
         <v>2</v>
       </c>
-      <c r="L29" s="15">
-        <v>1</v>
-      </c>
-      <c r="M29" s="19"/>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L29" s="8">
+        <v>1</v>
+      </c>
+      <c r="M29" s="15"/>
+      <c r="N29" s="19"/>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -1891,12 +1920,13 @@
       <c r="K30" s="8">
         <v>4</v>
       </c>
-      <c r="L30" s="15">
-        <v>1</v>
-      </c>
-      <c r="M30" s="19"/>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L30" s="8">
+        <v>1</v>
+      </c>
+      <c r="M30" s="15"/>
+      <c r="N30" s="19"/>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -1930,12 +1960,13 @@
       <c r="K31" s="8">
         <v>8</v>
       </c>
-      <c r="L31" s="15">
-        <v>1</v>
-      </c>
-      <c r="M31" s="19"/>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L31" s="8">
+        <v>1</v>
+      </c>
+      <c r="M31" s="15"/>
+      <c r="N31" s="19"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -1969,12 +2000,12 @@
       <c r="K32" s="8">
         <v>1</v>
       </c>
-      <c r="L32" s="1">
-        <v>1</v>
-      </c>
-      <c r="M32" s="19"/>
-    </row>
-    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L32" s="8">
+        <v>1</v>
+      </c>
+      <c r="N32" s="19"/>
+    </row>
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -2008,12 +2039,12 @@
       <c r="K33" s="8">
         <v>2</v>
       </c>
-      <c r="L33" s="1">
-        <v>1</v>
-      </c>
-      <c r="M33" s="19"/>
-    </row>
-    <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L33" s="8">
+        <v>1</v>
+      </c>
+      <c r="N33" s="19"/>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -2047,12 +2078,12 @@
       <c r="K34" s="8">
         <v>4</v>
       </c>
-      <c r="L34" s="1">
-        <v>1</v>
-      </c>
-      <c r="M34" s="19"/>
-    </row>
-    <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L34" s="8">
+        <v>1</v>
+      </c>
+      <c r="N34" s="19"/>
+    </row>
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -2086,12 +2117,12 @@
       <c r="K35" s="8">
         <v>8</v>
       </c>
-      <c r="L35" s="1">
-        <v>1</v>
-      </c>
-      <c r="M35" s="19"/>
-    </row>
-    <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L35" s="8">
+        <v>1</v>
+      </c>
+      <c r="N35" s="19"/>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -2125,12 +2156,12 @@
       <c r="K36" s="8">
         <v>0</v>
       </c>
-      <c r="L36" s="1">
-        <v>1</v>
-      </c>
-      <c r="M36" s="19"/>
-    </row>
-    <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L36" s="8">
+        <v>1</v>
+      </c>
+      <c r="N36" s="19"/>
+    </row>
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -2164,12 +2195,12 @@
       <c r="K37" s="8">
         <v>0</v>
       </c>
-      <c r="L37" s="1">
-        <v>1</v>
-      </c>
-      <c r="M37" s="19"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L37" s="8">
+        <v>1</v>
+      </c>
+      <c r="N37" s="19"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -2203,12 +2234,12 @@
       <c r="K38" s="8">
         <v>0</v>
       </c>
-      <c r="L38" s="1">
-        <v>1</v>
-      </c>
-      <c r="M38" s="19"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L38" s="8">
+        <v>1</v>
+      </c>
+      <c r="N38" s="19"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -2242,12 +2273,12 @@
       <c r="K39" s="8">
         <v>0</v>
       </c>
-      <c r="L39" s="1">
-        <v>1</v>
-      </c>
-      <c r="M39" s="19"/>
-    </row>
-    <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L39" s="8">
+        <v>1</v>
+      </c>
+      <c r="N39" s="19"/>
+    </row>
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -2281,14 +2312,14 @@
       <c r="K40" s="6">
         <v>1</v>
       </c>
-      <c r="L40" s="1">
-        <v>1</v>
-      </c>
-      <c r="M40" s="18" t="s">
+      <c r="L40" s="6">
+        <v>1</v>
+      </c>
+      <c r="N40" s="18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -2322,12 +2353,12 @@
       <c r="K41" s="6">
         <v>2</v>
       </c>
-      <c r="L41" s="1">
-        <v>1</v>
-      </c>
-      <c r="M41" s="18"/>
-    </row>
-    <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L41" s="6">
+        <v>1</v>
+      </c>
+      <c r="N41" s="18"/>
+    </row>
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -2361,12 +2392,12 @@
       <c r="K42" s="6">
         <v>4</v>
       </c>
-      <c r="L42" s="1">
-        <v>1</v>
-      </c>
-      <c r="M42" s="18"/>
-    </row>
-    <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L42" s="6">
+        <v>1</v>
+      </c>
+      <c r="N42" s="18"/>
+    </row>
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -2400,12 +2431,12 @@
       <c r="K43" s="6">
         <v>6</v>
       </c>
-      <c r="L43" s="1">
-        <v>1</v>
-      </c>
-      <c r="M43" s="18"/>
-    </row>
-    <row r="44" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L43" s="6">
+        <v>1</v>
+      </c>
+      <c r="N43" s="18"/>
+    </row>
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -2439,12 +2470,12 @@
       <c r="K44" s="6">
         <v>1</v>
       </c>
-      <c r="L44" s="1">
-        <v>1</v>
-      </c>
-      <c r="M44" s="18"/>
-    </row>
-    <row r="45" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L44" s="6">
+        <v>1</v>
+      </c>
+      <c r="N44" s="18"/>
+    </row>
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -2478,12 +2509,12 @@
       <c r="K45" s="6">
         <v>4</v>
       </c>
-      <c r="L45" s="1">
-        <v>1</v>
-      </c>
-      <c r="M45" s="18"/>
-    </row>
-    <row r="46" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L45" s="6">
+        <v>1</v>
+      </c>
+      <c r="N45" s="18"/>
+    </row>
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -2517,12 +2548,12 @@
       <c r="K46" s="6">
         <v>6</v>
       </c>
-      <c r="L46" s="1">
-        <v>1</v>
-      </c>
-      <c r="M46" s="18"/>
-    </row>
-    <row r="47" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L46" s="6">
+        <v>1</v>
+      </c>
+      <c r="N46" s="18"/>
+    </row>
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -2556,12 +2587,12 @@
       <c r="K47" s="6">
         <v>8</v>
       </c>
-      <c r="L47" s="1">
-        <v>1</v>
-      </c>
-      <c r="M47" s="18"/>
-    </row>
-    <row r="48" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L47" s="6">
+        <v>1</v>
+      </c>
+      <c r="N47" s="18"/>
+    </row>
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -2595,12 +2626,12 @@
       <c r="K48" s="6">
         <v>1</v>
       </c>
-      <c r="L48" s="1">
-        <v>1</v>
-      </c>
-      <c r="M48" s="18"/>
-    </row>
-    <row r="49" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L48" s="6">
+        <v>1</v>
+      </c>
+      <c r="N48" s="18"/>
+    </row>
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -2634,12 +2665,12 @@
       <c r="K49" s="6">
         <v>2</v>
       </c>
-      <c r="L49" s="1">
-        <v>1</v>
-      </c>
-      <c r="M49" s="18"/>
-    </row>
-    <row r="50" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L49" s="6">
+        <v>1</v>
+      </c>
+      <c r="N49" s="18"/>
+    </row>
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -2673,12 +2704,12 @@
       <c r="K50" s="6">
         <v>4</v>
       </c>
-      <c r="L50" s="1">
-        <v>1</v>
-      </c>
-      <c r="M50" s="18"/>
-    </row>
-    <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L50" s="6">
+        <v>1</v>
+      </c>
+      <c r="N50" s="18"/>
+    </row>
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -2712,20 +2743,20 @@
       <c r="K51" s="6">
         <v>8</v>
       </c>
-      <c r="L51" s="1">
-        <v>1</v>
-      </c>
-      <c r="M51" s="18"/>
-    </row>
-    <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L51" s="6">
+        <v>1</v>
+      </c>
+      <c r="N51" s="18"/>
+    </row>
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="D52" s="7">
         <v>0</v>
@@ -2749,12 +2780,15 @@
       <c r="K52" s="7">
         <v>0</v>
       </c>
-      <c r="M52"/>
-    </row>
-    <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M53"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L52" s="7">
+        <v>0</v>
+      </c>
+      <c r="N52"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N53"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B63"/>
       <c r="C63"/>
       <c r="D63"/>
@@ -2765,13 +2799,14 @@
       <c r="I63"/>
       <c r="J63"/>
       <c r="K63"/>
+      <c r="L63"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="M12:M23"/>
-    <mergeCell ref="M2:M11"/>
-    <mergeCell ref="M40:M51"/>
-    <mergeCell ref="M24:M39"/>
+    <mergeCell ref="N12:N23"/>
+    <mergeCell ref="N2:N11"/>
+    <mergeCell ref="N40:N51"/>
+    <mergeCell ref="N24:N39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
